--- a/public/data/simdasi/source/5.4.15.xlsx
+++ b/public/data/simdasi/source/5.4.15.xlsx
@@ -438,664 +438,691 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" t="s">
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
         <v>30</v>
       </c>
-      <c r="H8" t="s">
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9">
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
       <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
       <c r="F10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>33</v>
-      </c>
       <c r="H11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>6</v>
       </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
-      </c>
       <c r="H12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13">
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>79</v>
       </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
       <c r="H13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14">
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>42</v>
       </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" t="s">
-        <v>33</v>
-      </c>
       <c r="H14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15">
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15">
         <v>28</v>
       </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
       <c r="H15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16">
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
       <c r="H16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
-        <v>1</v>
-      </c>
       <c r="D17" t="s">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
       <c r="F17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18">
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>75</v>
       </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
       <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>11</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D19">
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>12</v>
       </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>33</v>
-      </c>
       <c r="H19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20">
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s">
-        <v>33</v>
-      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>122</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>34</v>
       </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
-        <v>33</v>
-      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>18</v>
       </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>249</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>9</v>
       </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>33</v>
-      </c>
       <c r="H23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>8</v>
       </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" t="s">
-        <v>33</v>
-      </c>
       <c r="H24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>172</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>38</v>
       </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
       <c r="H25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>114</v>
       </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
-      </c>
       <c r="H26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>223</v>
       </c>
-      <c r="D27">
-        <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27">
         <v>33</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>43</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>29</v>
       </c>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
-      </c>
       <c r="H28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" t="s">
+        <v>33</v>
+      </c>
+      <c r="N28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29">
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>9</v>
       </c>
-      <c r="E29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
       <c r="H29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" t="s">
+        <v>33</v>
+      </c>
+      <c r="N29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30">
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>3</v>
       </c>
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
-      </c>
       <c r="H30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>39</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>21</v>
       </c>
-      <c r="E31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
       <c r="H31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
       <c r="B32">
         <v>87</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>45</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>57</v>
       </c>
-      <c r="E32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" t="s">
-        <v>33</v>
-      </c>
       <c r="H32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" t="s">
+        <v>33</v>
+      </c>
+      <c r="N32" t="s">
         <v>33</v>
       </c>
     </row>
